--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.118296</v>
+        <v>3.961421333333333</v>
       </c>
       <c r="H2">
-        <v>21.354888</v>
+        <v>11.884264</v>
       </c>
       <c r="I2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="J2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5747853333333334</v>
+        <v>0.310403</v>
       </c>
       <c r="N2">
-        <v>1.724356</v>
+        <v>0.9312090000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>4.091492139125333</v>
+        <v>1.229637066130667</v>
       </c>
       <c r="R2">
-        <v>36.823429252128</v>
+        <v>11.066733595176</v>
       </c>
       <c r="S2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="T2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>19.113044</v>
       </c>
       <c r="I3">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="J3">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5747853333333334</v>
+        <v>0.310403</v>
       </c>
       <c r="N3">
-        <v>1.724356</v>
+        <v>0.9312090000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.661965788851556</v>
+        <v>1.977582065577334</v>
       </c>
       <c r="R3">
-        <v>32.957692099664</v>
+        <v>17.798238590196</v>
       </c>
       <c r="S3">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="T3">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,22 +664,22 @@
         <v>7.154496</v>
       </c>
       <c r="I4">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="J4">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5747853333333334</v>
+        <v>0.310403</v>
       </c>
       <c r="N4">
-        <v>1.724356</v>
+        <v>0.9312090000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.370766456064</v>
+        <v>0.740259007296</v>
       </c>
       <c r="R4">
-        <v>12.336898104576</v>
+        <v>6.662331065664</v>
       </c>
       <c r="S4">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="T4">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
     </row>
   </sheetData>
